--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>929282.6186866285</v>
+        <v>926080.2696678793</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.162505705</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057049</v>
       </c>
       <c r="E2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149438.9171707862</v>
+        <v>148911.5719567398</v>
       </c>
       <c r="C6" t="n">
-        <v>149438.917170786</v>
+        <v>148911.5719567395</v>
       </c>
       <c r="D6" t="n">
-        <v>149438.9171707861</v>
+        <v>148911.5719567398</v>
       </c>
       <c r="E6" t="n">
-        <v>-22911.69499732882</v>
+        <v>-23224.20247631946</v>
       </c>
       <c r="F6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="G6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="H6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="I6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="J6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="K6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="L6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="M6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="N6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="O6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
       <c r="P6" t="n">
-        <v>110188.3050026712</v>
+        <v>109875.7975236806</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926080.2696678793</v>
+        <v>939806.627805297</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.162505705</v>
       </c>
       <c r="C2" t="n">
+        <v>634939.1625057048</v>
+      </c>
+      <c r="D2" t="n">
         <v>634939.1625057047</v>
       </c>
-      <c r="D2" t="n">
-        <v>634939.1625057049</v>
-      </c>
       <c r="E2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26522,46 +26524,46 @@
         <v>148911.5719567398</v>
       </c>
       <c r="C6" t="n">
+        <v>148911.5719567396</v>
+      </c>
+      <c r="D6" t="n">
         <v>148911.5719567395</v>
       </c>
-      <c r="D6" t="n">
-        <v>148911.5719567398</v>
-      </c>
       <c r="E6" t="n">
-        <v>-23224.20247631946</v>
+        <v>-23224.2024763196</v>
       </c>
       <c r="F6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="G6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="H6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="I6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="J6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="K6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="L6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="M6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="N6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="O6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
       <c r="P6" t="n">
-        <v>109875.7975236806</v>
+        <v>109875.7975236805</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>939806.627805297</v>
+        <v>856021.2260436725</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>634939.1625057048</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="M2" t="n">
         <v>177196.8496322885</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148911.5719567398</v>
+        <v>148867.4361780587</v>
       </c>
       <c r="C6" t="n">
-        <v>148911.5719567396</v>
+        <v>148867.4361780585</v>
       </c>
       <c r="D6" t="n">
-        <v>148911.5719567395</v>
+        <v>148867.4361780585</v>
       </c>
       <c r="E6" t="n">
-        <v>-23224.2024763196</v>
+        <v>-38034.21931543345</v>
       </c>
       <c r="F6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456662</v>
       </c>
       <c r="G6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456662</v>
       </c>
       <c r="H6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456659</v>
       </c>
       <c r="I6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456665</v>
       </c>
       <c r="J6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456668</v>
       </c>
       <c r="K6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456659</v>
       </c>
       <c r="L6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456659</v>
       </c>
       <c r="M6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456656</v>
       </c>
       <c r="N6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456662</v>
       </c>
       <c r="O6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456659</v>
       </c>
       <c r="P6" t="n">
-        <v>109875.7975236805</v>
+        <v>95065.78068456665</v>
       </c>
     </row>
   </sheetData>
